--- a/creat.xlsx
+++ b/creat.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="本金" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -137,7 +138,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>AreaChart</a:t>
+              <a:t>本息平均攤還</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -146,6 +147,54 @@
     <plotArea>
       <areaChart>
         <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!C9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$9:$A$249</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$C$10:$C$249</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!D9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$9:$A$249</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$D$10:$D$249</f>
+            </numRef>
+          </val>
+        </ser>
         <axId val="10"/>
         <axId val="100"/>
       </areaChart>
@@ -164,7 +213,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>test</a:t>
+                  <a:t>期數</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -191,7 +240,142 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Percentage</a:t>
+                  <a:t>金額</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>本金平均攤還</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <areaChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'本金'!C9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'本金'!$A$9:$A$249</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'本金'!$C$10:$C$249</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'本金'!E9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'本金'!$A$9:$A$249</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'本金'!$E$10:$E$249</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </areaChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>期數</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>金額</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -212,6 +396,33 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -5183,4 +5394,4665 @@
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E248"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>貸款金額</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>還款方式</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>本息攤還</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>貸款年數</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>年利息</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>總繳利息</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>期數(年)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>貸款餘額</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>本金攤還</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>繳款金額</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>995833.3333333334</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2074.652777777778</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6241.319444444445</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>991666.6666666667</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2065.972222222223</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6232.63888888889</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>987500.0000000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2057.291666666667</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6223.958333333334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>983333.3333333335</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2048.611111111112</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6215.277777777779</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>979166.6666666669</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2039.930555555556</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6206.597222222223</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>975000.0000000002</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2031.25</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6197.916666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>970833.3333333336</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2022.569444444445</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6189.236111111112</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>966666.666666667</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2013.88888888889</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6180.555555555557</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>962500.0000000003</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2005.208333333334</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6171.875000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>958333.3333333337</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1996.527777777779</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6163.194444444445</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>954166.6666666671</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1987.847222222223</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6154.513888888891</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>950000.0000000005</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1979.166666666668</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6145.833333333335</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>945833.3333333338</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1970.486111111112</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6137.152777777779</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>941666.6666666672</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1961.805555555557</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6128.472222222224</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>937500.0000000006</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1953.125000000001</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6119.791666666668</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>933333.333333334</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1944.444444444446</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6111.111111111113</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>929166.6666666673</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1935.76388888889</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6102.430555555557</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>925000.0000000007</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1927.083333333335</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6093.750000000002</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>920833.3333333341</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1918.402777777779</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6085.069444444446</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>916666.6666666674</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1909.722222222224</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6076.388888888891</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>912500.0000000008</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1901.041666666668</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6067.708333333335</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>908333.3333333342</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1892.361111111113</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6059.02777777778</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>904166.6666666676</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1883.680555555557</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6050.347222222224</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>900000.0000000009</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1875.000000000002</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6041.666666666669</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>895833.3333333343</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1866.319444444446</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6032.986111111113</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>891666.6666666677</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1857.638888888891</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6024.305555555558</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>887500.000000001</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1848.958333333336</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6015.625000000003</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>883333.3333333344</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1840.27777777778</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6006.944444444447</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>879166.6666666678</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1831.597222222224</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5998.263888888891</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>875000.0000000012</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1822.916666666669</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5989.583333333336</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>870833.3333333345</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1814.236111111114</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5980.902777777781</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>866666.6666666679</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1805.555555555558</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5972.222222222225</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>862500.0000000013</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1796.875000000003</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5963.54166666667</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>858333.3333333347</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1788.194444444447</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5954.861111111114</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>854166.666666668</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1779.513888888892</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5946.180555555559</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>850000.0000000014</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1770.833333333336</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5937.500000000004</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>845833.3333333348</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1762.152777777781</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5928.819444444448</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>841666.6666666681</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1753.472222222225</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5920.138888888892</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>837500.0000000015</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1744.79166666667</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5911.458333333337</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>833333.3333333349</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1736.111111111114</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5902.777777777781</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>829166.6666666683</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1727.430555555559</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5894.097222222226</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>825000.0000000016</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1718.750000000004</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5885.416666666671</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>820833.333333335</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1710.069444444448</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5876.736111111115</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>816666.6666666684</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1701.388888888893</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5868.055555555559</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>812500.0000000017</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1692.708333333337</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5859.375000000004</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>808333.3333333351</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1684.027777777781</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5850.694444444448</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>804166.6666666685</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1675.347222222226</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5842.013888888893</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>800000.0000000019</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1666.666666666671</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5833.333333333338</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>795833.3333333352</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1657.986111111115</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5824.652777777782</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>791666.6666666686</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1649.30555555556</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5815.972222222226</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>787500.000000002</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1640.625000000004</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5807.291666666672</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>783333.3333333354</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1631.944444444449</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5798.611111111116</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>779166.6666666687</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1623.263888888893</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5789.93055555556</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>775000.0000000021</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1614.583333333338</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5781.250000000005</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>770833.3333333355</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1605.902777777782</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5772.569444444449</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>766666.6666666688</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1597.222222222227</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5763.888888888894</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>762500.0000000022</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1588.541666666671</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5755.208333333338</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>758333.3333333356</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1579.861111111116</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5746.527777777783</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>754166.666666669</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1571.18055555556</v>
+      </c>
+      <c r="E67" t="n">
+        <v>5737.847222222227</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>750000.0000000023</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1562.500000000005</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5729.166666666672</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>745833.3333333357</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1553.81944444445</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5720.486111111117</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>741666.6666666691</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1545.138888888894</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5711.805555555561</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>737500.0000000024</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1536.458333333338</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5703.125000000005</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>733333.3333333358</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1527.777777777783</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5694.44444444445</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>729166.6666666692</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1519.097222222227</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5685.763888888894</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>725000.0000000026</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1510.416666666672</v>
+      </c>
+      <c r="E74" t="n">
+        <v>5677.083333333339</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>720833.3333333359</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1501.736111111117</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5668.402777777784</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>716666.6666666693</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1493.055555555561</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5659.722222222228</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>712500.0000000027</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1484.375000000006</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5651.041666666672</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>708333.333333336</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1475.69444444445</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5642.361111111117</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>704166.6666666694</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1467.013888888895</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5633.680555555562</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>700000.0000000028</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1458.333333333339</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5625.000000000006</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>695833.3333333362</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1449.652777777784</v>
+      </c>
+      <c r="E81" t="n">
+        <v>5616.319444444451</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>691666.6666666695</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1440.972222222228</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5607.638888888895</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>687500.0000000029</v>
+      </c>
+      <c r="C83" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1432.291666666673</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5598.958333333339</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>683333.3333333363</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1423.611111111117</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5590.277777777785</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>679166.6666666697</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1414.930555555562</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5581.597222222229</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>675000.000000003</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1406.250000000006</v>
+      </c>
+      <c r="E86" t="n">
+        <v>5572.916666666673</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>670833.3333333364</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1397.569444444451</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5564.236111111118</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>666666.6666666698</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1388.888888888895</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5555.555555555562</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>662500.0000000031</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1380.20833333334</v>
+      </c>
+      <c r="E89" t="n">
+        <v>5546.875000000007</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>658333.3333333365</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1371.527777777785</v>
+      </c>
+      <c r="E90" t="n">
+        <v>5538.194444444452</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>654166.6666666699</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1362.847222222229</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5529.513888888896</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>650000.0000000033</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1354.166666666674</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5520.83333333334</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>645833.3333333366</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1345.486111111118</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5512.152777777785</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>641666.66666667</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1336.805555555562</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5503.47222222223</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>637500.0000000034</v>
+      </c>
+      <c r="C95" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1328.125000000007</v>
+      </c>
+      <c r="E95" t="n">
+        <v>5494.791666666674</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>633333.3333333367</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1319.444444444452</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5486.111111111119</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>629166.6666666701</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1310.763888888896</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5477.430555555563</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>625000.0000000035</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1302.083333333341</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5468.750000000007</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>620833.3333333369</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1293.402777777785</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5460.069444444453</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>616666.6666666702</v>
+      </c>
+      <c r="C100" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1284.72222222223</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5451.388888888897</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>612500.0000000036</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1276.041666666674</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5442.708333333341</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>608333.333333337</v>
+      </c>
+      <c r="C102" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1267.361111111119</v>
+      </c>
+      <c r="E102" t="n">
+        <v>5434.027777777786</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>604166.6666666704</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1258.680555555563</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5425.34722222223</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>600000.0000000037</v>
+      </c>
+      <c r="C104" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1250.000000000008</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5416.666666666675</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>595833.3333333371</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1241.319444444452</v>
+      </c>
+      <c r="E105" t="n">
+        <v>5407.986111111119</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>591666.6666666705</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1232.638888888897</v>
+      </c>
+      <c r="E106" t="n">
+        <v>5399.305555555564</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>587500.0000000038</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1223.958333333341</v>
+      </c>
+      <c r="E107" t="n">
+        <v>5390.625000000008</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>583333.3333333372</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1215.277777777786</v>
+      </c>
+      <c r="E108" t="n">
+        <v>5381.944444444453</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>579166.6666666706</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1206.597222222231</v>
+      </c>
+      <c r="E109" t="n">
+        <v>5373.263888888898</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>575000.000000004</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1197.916666666675</v>
+      </c>
+      <c r="E110" t="n">
+        <v>5364.583333333342</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>570833.3333333373</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1189.236111111119</v>
+      </c>
+      <c r="E111" t="n">
+        <v>5355.902777777786</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>566666.6666666707</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1180.555555555564</v>
+      </c>
+      <c r="E112" t="n">
+        <v>5347.222222222231</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>562500.0000000041</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1171.875000000008</v>
+      </c>
+      <c r="E113" t="n">
+        <v>5338.541666666675</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>558333.3333333374</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1163.194444444453</v>
+      </c>
+      <c r="E114" t="n">
+        <v>5329.86111111112</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>554166.6666666708</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1154.513888888898</v>
+      </c>
+      <c r="E115" t="n">
+        <v>5321.180555555565</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>550000.0000000042</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1145.833333333342</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5312.500000000009</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>545833.3333333376</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1137.152777777787</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5303.819444444453</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>541666.6666666709</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1128.472222222231</v>
+      </c>
+      <c r="E118" t="n">
+        <v>5295.138888888898</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>537500.0000000043</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1119.791666666676</v>
+      </c>
+      <c r="E119" t="n">
+        <v>5286.458333333343</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>533333.3333333377</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1111.11111111112</v>
+      </c>
+      <c r="E120" t="n">
+        <v>5277.777777777787</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>529166.6666666711</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1102.430555555565</v>
+      </c>
+      <c r="E121" t="n">
+        <v>5269.097222222232</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>525000.0000000044</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1093.750000000009</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5260.416666666676</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>520833.3333333377</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1085.069444444454</v>
+      </c>
+      <c r="E123" t="n">
+        <v>5251.73611111112</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>516666.6666666711</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1076.388888888898</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5243.055555555565</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>512500.0000000044</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1067.708333333342</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5234.375000000009</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>508333.3333333377</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1059.027777777787</v>
+      </c>
+      <c r="E126" t="n">
+        <v>5225.694444444454</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>504166.666666671</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1050.347222222231</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5217.013888888898</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>500000.0000000043</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1041.666666666676</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5208.333333333343</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>495833.3333333376</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1032.98611111112</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5199.652777777786</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>491666.6666666709</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1024.305555555565</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5190.972222222232</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>487500.0000000042</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1015.625000000009</v>
+      </c>
+      <c r="E131" t="n">
+        <v>5182.291666666676</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>483333.3333333376</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1006.944444444453</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5173.61111111112</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>479166.6666666709</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D133" t="n">
+        <v>998.2638888888977</v>
+      </c>
+      <c r="E133" t="n">
+        <v>5164.930555555565</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>475000.0000000042</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D134" t="n">
+        <v>989.5833333333421</v>
+      </c>
+      <c r="E134" t="n">
+        <v>5156.250000000009</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>470833.3333333375</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D135" t="n">
+        <v>980.9027777777865</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5147.569444444453</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>466666.6666666708</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D136" t="n">
+        <v>972.2222222222308</v>
+      </c>
+      <c r="E136" t="n">
+        <v>5138.888888888898</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>462500.0000000041</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D137" t="n">
+        <v>963.5416666666752</v>
+      </c>
+      <c r="E137" t="n">
+        <v>5130.208333333342</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>458333.3333333374</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D138" t="n">
+        <v>954.8611111111198</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5121.527777777786</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>454166.6666666708</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D139" t="n">
+        <v>946.1805555555642</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5112.847222222231</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>450000.0000000041</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D140" t="n">
+        <v>937.5000000000085</v>
+      </c>
+      <c r="E140" t="n">
+        <v>5104.166666666675</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>445833.3333333374</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D141" t="n">
+        <v>928.819444444453</v>
+      </c>
+      <c r="E141" t="n">
+        <v>5095.48611111112</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>441666.6666666707</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D142" t="n">
+        <v>920.1388888888973</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5086.805555555564</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>437500.000000004</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D143" t="n">
+        <v>911.4583333333417</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5078.125000000009</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>433333.3333333373</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D144" t="n">
+        <v>902.777777777786</v>
+      </c>
+      <c r="E144" t="n">
+        <v>5069.444444444453</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>429166.6666666706</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D145" t="n">
+        <v>894.0972222222305</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5060.763888888898</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>425000.000000004</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D146" t="n">
+        <v>885.4166666666748</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5052.083333333342</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>420833.3333333373</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D147" t="n">
+        <v>876.7361111111194</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5043.402777777786</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>416666.6666666706</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D148" t="n">
+        <v>868.0555555555638</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5034.722222222231</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>412500.0000000039</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D149" t="n">
+        <v>859.3750000000082</v>
+      </c>
+      <c r="E149" t="n">
+        <v>5026.041666666675</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>408333.3333333372</v>
+      </c>
+      <c r="C150" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D150" t="n">
+        <v>850.6944444444525</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5017.361111111119</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>404166.6666666705</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D151" t="n">
+        <v>842.0138888888969</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5008.680555555564</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>400000.0000000038</v>
+      </c>
+      <c r="C152" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D152" t="n">
+        <v>833.3333333333413</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5000.000000000008</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>395833.3333333372</v>
+      </c>
+      <c r="C153" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D153" t="n">
+        <v>824.6527777777857</v>
+      </c>
+      <c r="E153" t="n">
+        <v>4991.319444444453</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>391666.6666666705</v>
+      </c>
+      <c r="C154" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D154" t="n">
+        <v>815.9722222222302</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4982.638888888897</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>387500.0000000038</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D155" t="n">
+        <v>807.2916666666746</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4973.958333333341</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>383333.3333333371</v>
+      </c>
+      <c r="C156" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D156" t="n">
+        <v>798.611111111119</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4965.277777777786</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>379166.6666666704</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D157" t="n">
+        <v>789.9305555555634</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4956.59722222223</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>375000.0000000037</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D158" t="n">
+        <v>781.2500000000077</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4947.916666666675</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>370833.333333337</v>
+      </c>
+      <c r="C159" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D159" t="n">
+        <v>772.5694444444522</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4939.236111111119</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>366666.6666666704</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D160" t="n">
+        <v>763.8888888888965</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4930.555555555564</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>362500.0000000037</v>
+      </c>
+      <c r="C161" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D161" t="n">
+        <v>755.2083333333411</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4921.875000000008</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>358333.333333337</v>
+      </c>
+      <c r="C162" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D162" t="n">
+        <v>746.5277777777854</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4913.194444444453</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>354166.6666666703</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D163" t="n">
+        <v>737.8472222222298</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4904.513888888897</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>350000.0000000036</v>
+      </c>
+      <c r="C164" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D164" t="n">
+        <v>729.1666666666742</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4895.833333333341</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>345833.3333333369</v>
+      </c>
+      <c r="C165" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D165" t="n">
+        <v>720.4861111111186</v>
+      </c>
+      <c r="E165" t="n">
+        <v>4887.152777777786</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>341666.6666666702</v>
+      </c>
+      <c r="C166" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D166" t="n">
+        <v>711.8055555555629</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4878.47222222223</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>337500.0000000036</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D167" t="n">
+        <v>703.1250000000074</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4869.791666666674</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>333333.3333333369</v>
+      </c>
+      <c r="C168" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D168" t="n">
+        <v>694.4444444444517</v>
+      </c>
+      <c r="E168" t="n">
+        <v>4861.111111111119</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>329166.6666666702</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D169" t="n">
+        <v>685.7638888888963</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4852.430555555563</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>325000.0000000035</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D170" t="n">
+        <v>677.0833333333406</v>
+      </c>
+      <c r="E170" t="n">
+        <v>4843.750000000007</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>320833.3333333368</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D171" t="n">
+        <v>668.402777777785</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4835.069444444452</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>316666.6666666701</v>
+      </c>
+      <c r="C172" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D172" t="n">
+        <v>659.7222222222294</v>
+      </c>
+      <c r="E172" t="n">
+        <v>4826.388888888896</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>312500.0000000034</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D173" t="n">
+        <v>651.0416666666739</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4817.708333333341</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>308333.3333333367</v>
+      </c>
+      <c r="C174" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D174" t="n">
+        <v>642.3611111111182</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4809.027777777786</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>304166.6666666701</v>
+      </c>
+      <c r="C175" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D175" t="n">
+        <v>633.6805555555626</v>
+      </c>
+      <c r="E175" t="n">
+        <v>4800.34722222223</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>300000.0000000034</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D176" t="n">
+        <v>625.0000000000069</v>
+      </c>
+      <c r="E176" t="n">
+        <v>4791.666666666674</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>295833.3333333367</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D177" t="n">
+        <v>616.3194444444515</v>
+      </c>
+      <c r="E177" t="n">
+        <v>4782.986111111119</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>291666.66666667</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D178" t="n">
+        <v>607.6388888888958</v>
+      </c>
+      <c r="E178" t="n">
+        <v>4774.305555555563</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>287500.0000000033</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D179" t="n">
+        <v>598.9583333333402</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4765.625000000007</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>283333.3333333366</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D180" t="n">
+        <v>590.2777777777848</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4756.944444444452</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>279166.6666666699</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D181" t="n">
+        <v>581.5972222222291</v>
+      </c>
+      <c r="E181" t="n">
+        <v>4748.263888888896</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>275000.0000000033</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D182" t="n">
+        <v>572.9166666666734</v>
+      </c>
+      <c r="E182" t="n">
+        <v>4739.58333333334</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>270833.3333333366</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D183" t="n">
+        <v>564.2361111111178</v>
+      </c>
+      <c r="E183" t="n">
+        <v>4730.902777777785</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>266666.6666666699</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D184" t="n">
+        <v>555.5555555555623</v>
+      </c>
+      <c r="E184" t="n">
+        <v>4722.222222222229</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>262500.0000000032</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D185" t="n">
+        <v>546.8750000000067</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4713.541666666673</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>258333.3333333365</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D186" t="n">
+        <v>538.1944444444512</v>
+      </c>
+      <c r="E186" t="n">
+        <v>4704.861111111119</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>254166.6666666699</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D187" t="n">
+        <v>529.5138888888956</v>
+      </c>
+      <c r="E187" t="n">
+        <v>4696.180555555563</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>250000.0000000032</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D188" t="n">
+        <v>520.83333333334</v>
+      </c>
+      <c r="E188" t="n">
+        <v>4687.500000000007</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>245833.3333333366</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D189" t="n">
+        <v>512.1527777777845</v>
+      </c>
+      <c r="E189" t="n">
+        <v>4678.819444444452</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>241666.6666666699</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D190" t="n">
+        <v>503.472222222229</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4670.138888888896</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>237500.0000000033</v>
+      </c>
+      <c r="C191" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D191" t="n">
+        <v>494.7916666666735</v>
+      </c>
+      <c r="E191" t="n">
+        <v>4661.45833333334</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>233333.3333333366</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D192" t="n">
+        <v>486.1111111111179</v>
+      </c>
+      <c r="E192" t="n">
+        <v>4652.777777777785</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>229166.6666666699</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D193" t="n">
+        <v>477.4305555555624</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4644.097222222229</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>225000.0000000033</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D194" t="n">
+        <v>468.7500000000069</v>
+      </c>
+      <c r="E194" t="n">
+        <v>4635.416666666674</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>220833.3333333366</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D195" t="n">
+        <v>460.0694444444514</v>
+      </c>
+      <c r="E195" t="n">
+        <v>4626.736111111119</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>216666.66666667</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D196" t="n">
+        <v>451.3888888888957</v>
+      </c>
+      <c r="E196" t="n">
+        <v>4618.055555555563</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>212500.0000000033</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D197" t="n">
+        <v>442.7083333333402</v>
+      </c>
+      <c r="E197" t="n">
+        <v>4609.375000000007</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>208333.3333333367</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D198" t="n">
+        <v>434.0277777777847</v>
+      </c>
+      <c r="E198" t="n">
+        <v>4600.694444444452</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>204166.66666667</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D199" t="n">
+        <v>425.3472222222292</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4592.013888888896</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>200000.0000000033</v>
+      </c>
+      <c r="C200" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D200" t="n">
+        <v>416.6666666666736</v>
+      </c>
+      <c r="E200" t="n">
+        <v>4583.33333333334</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>195833.3333333367</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D201" t="n">
+        <v>407.9861111111181</v>
+      </c>
+      <c r="E201" t="n">
+        <v>4574.652777777785</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>191666.66666667</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D202" t="n">
+        <v>399.3055555555625</v>
+      </c>
+      <c r="E202" t="n">
+        <v>4565.97222222223</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>187500.0000000034</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D203" t="n">
+        <v>390.625000000007</v>
+      </c>
+      <c r="E203" t="n">
+        <v>4557.291666666674</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>183333.3333333367</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D204" t="n">
+        <v>381.9444444444516</v>
+      </c>
+      <c r="E204" t="n">
+        <v>4548.611111111119</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>179166.6666666701</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D205" t="n">
+        <v>373.263888888896</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4539.930555555563</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>175000.0000000034</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D206" t="n">
+        <v>364.5833333333405</v>
+      </c>
+      <c r="E206" t="n">
+        <v>4531.250000000007</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>170833.3333333367</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D207" t="n">
+        <v>355.9027777777849</v>
+      </c>
+      <c r="E207" t="n">
+        <v>4522.569444444452</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>166666.6666666701</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D208" t="n">
+        <v>347.2222222222294</v>
+      </c>
+      <c r="E208" t="n">
+        <v>4513.888888888896</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>162500.0000000034</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D209" t="n">
+        <v>338.5416666666738</v>
+      </c>
+      <c r="E209" t="n">
+        <v>4505.208333333341</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>158333.3333333368</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D210" t="n">
+        <v>329.8611111111183</v>
+      </c>
+      <c r="E210" t="n">
+        <v>4496.527777777786</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>154166.6666666701</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D211" t="n">
+        <v>321.1805555555628</v>
+      </c>
+      <c r="E211" t="n">
+        <v>4487.84722222223</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>150000.0000000035</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D212" t="n">
+        <v>312.5000000000072</v>
+      </c>
+      <c r="E212" t="n">
+        <v>4479.166666666674</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>145833.3333333368</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D213" t="n">
+        <v>303.8194444444517</v>
+      </c>
+      <c r="E213" t="n">
+        <v>4470.486111111119</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>141666.6666666701</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D214" t="n">
+        <v>295.1388888888961</v>
+      </c>
+      <c r="E214" t="n">
+        <v>4461.805555555563</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>137500.0000000035</v>
+      </c>
+      <c r="C215" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D215" t="n">
+        <v>286.4583333333406</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4453.125000000007</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>133333.3333333368</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D216" t="n">
+        <v>277.7777777777851</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4444.444444444453</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>129166.6666666702</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D217" t="n">
+        <v>269.0972222222295</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4435.763888888897</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>125000.0000000035</v>
+      </c>
+      <c r="C218" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D218" t="n">
+        <v>260.416666666674</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4427.083333333341</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>120833.3333333368</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D219" t="n">
+        <v>251.7361111111184</v>
+      </c>
+      <c r="E219" t="n">
+        <v>4418.402777777786</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>116666.6666666701</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D220" t="n">
+        <v>243.0555555555628</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4409.72222222223</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>112500.0000000035</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D221" t="n">
+        <v>234.3750000000072</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4401.041666666674</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>108333.3333333368</v>
+      </c>
+      <c r="C222" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D222" t="n">
+        <v>225.6944444444516</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4392.361111111119</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>104166.6666666701</v>
+      </c>
+      <c r="C223" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D223" t="n">
+        <v>217.0138888888961</v>
+      </c>
+      <c r="E223" t="n">
+        <v>4383.680555555563</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>100000.0000000035</v>
+      </c>
+      <c r="C224" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D224" t="n">
+        <v>208.3333333333406</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4375.000000000007</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>95833.33333333679</v>
+      </c>
+      <c r="C225" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D225" t="n">
+        <v>199.652777777785</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4366.319444444452</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>91666.66666667012</v>
+      </c>
+      <c r="C226" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D226" t="n">
+        <v>190.9722222222294</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4357.638888888896</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>87500.00000000345</v>
+      </c>
+      <c r="C227" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D227" t="n">
+        <v>182.2916666666739</v>
+      </c>
+      <c r="E227" t="n">
+        <v>4348.958333333341</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>83333.33333333678</v>
+      </c>
+      <c r="C228" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D228" t="n">
+        <v>173.6111111111183</v>
+      </c>
+      <c r="E228" t="n">
+        <v>4340.277777777786</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>79166.66666667011</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D229" t="n">
+        <v>164.9305555555627</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4331.59722222223</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>75000.00000000343</v>
+      </c>
+      <c r="C230" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D230" t="n">
+        <v>156.2500000000072</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4322.916666666674</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>70833.33333333676</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D231" t="n">
+        <v>147.5694444444516</v>
+      </c>
+      <c r="E231" t="n">
+        <v>4314.236111111119</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>66666.66666667009</v>
+      </c>
+      <c r="C232" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D232" t="n">
+        <v>138.888888888896</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4305.555555555563</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>62500.00000000343</v>
+      </c>
+      <c r="C233" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D233" t="n">
+        <v>130.2083333333404</v>
+      </c>
+      <c r="E233" t="n">
+        <v>4296.875000000007</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>58333.33333333676</v>
+      </c>
+      <c r="C234" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D234" t="n">
+        <v>121.5277777777849</v>
+      </c>
+      <c r="E234" t="n">
+        <v>4288.194444444452</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>54166.6666666701</v>
+      </c>
+      <c r="C235" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D235" t="n">
+        <v>112.8472222222294</v>
+      </c>
+      <c r="E235" t="n">
+        <v>4279.513888888896</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>50000.00000000343</v>
+      </c>
+      <c r="C236" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D236" t="n">
+        <v>104.1666666666738</v>
+      </c>
+      <c r="E236" t="n">
+        <v>4270.833333333341</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>45833.33333333677</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D237" t="n">
+        <v>95.48611111111826</v>
+      </c>
+      <c r="E237" t="n">
+        <v>4262.152777777786</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>41666.66666667011</v>
+      </c>
+      <c r="C238" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D238" t="n">
+        <v>86.80555555556272</v>
+      </c>
+      <c r="E238" t="n">
+        <v>4253.47222222223</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>37500.00000000344</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D239" t="n">
+        <v>78.12500000000718</v>
+      </c>
+      <c r="E239" t="n">
+        <v>4244.791666666674</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>33333.33333333678</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D240" t="n">
+        <v>69.44444444445162</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4236.111111111119</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>29166.66666667011</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D241" t="n">
+        <v>60.76388888889606</v>
+      </c>
+      <c r="E241" t="n">
+        <v>4227.430555555563</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>25000.00000000344</v>
+      </c>
+      <c r="C242" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D242" t="n">
+        <v>52.08333333334051</v>
+      </c>
+      <c r="E242" t="n">
+        <v>4218.750000000007</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>20833.33333333677</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D243" t="n">
+        <v>43.40277777778494</v>
+      </c>
+      <c r="E243" t="n">
+        <v>4210.069444444452</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>16666.66666667011</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D244" t="n">
+        <v>34.72222222222938</v>
+      </c>
+      <c r="E244" t="n">
+        <v>4201.388888888896</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>12500.00000000344</v>
+      </c>
+      <c r="C245" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D245" t="n">
+        <v>26.04166666667383</v>
+      </c>
+      <c r="E245" t="n">
+        <v>4192.708333333341</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>8333.33333333677</v>
+      </c>
+      <c r="C246" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D246" t="n">
+        <v>17.36111111111827</v>
+      </c>
+      <c r="E246" t="n">
+        <v>4184.027777777786</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>4166.666666670103</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D247" t="n">
+        <v>8.680555555562714</v>
+      </c>
+      <c r="E247" t="n">
+        <v>4175.34722222223</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>3.436070983298123e-09</v>
+      </c>
+      <c r="C248" t="n">
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D248" t="n">
+        <v>7.158481215204423e-12</v>
+      </c>
+      <c r="E248" t="n">
+        <v>4166.666666666674</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>